--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,153 +387,134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2">
-        <v>425.1561924047828</v>
+        <v>458.5060384048063</v>
       </c>
       <c r="C2">
-        <v>425.2485000970905</v>
+        <v>459.4166075104974</v>
       </c>
       <c r="D2">
-        <v>430.9368906612262</v>
+        <v>478.6324196672144</v>
       </c>
       <c r="E2">
-        <v>14.41267580667436</v>
+        <v>1.886403282714515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3">
-        <v>427.0247355063036</v>
+        <v>445.9698590601305</v>
       </c>
       <c r="C3">
-        <v>427.2107820179315</v>
+        <v>446.8804281658216</v>
       </c>
       <c r="D3">
-        <v>435.6957828909688</v>
+        <v>466.0962403225386</v>
       </c>
       <c r="E3">
-        <v>14.31064694159703</v>
+        <v>2.97148918737985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4">
-        <v>413.0317912231776</v>
+        <v>463.915084794109</v>
       </c>
       <c r="C4">
-        <v>413.2178377348055</v>
+        <v>464.8256538998001</v>
       </c>
       <c r="D4">
-        <v>421.7028386078429</v>
+        <v>484.0414660565171</v>
       </c>
       <c r="E4">
-        <v>19.34257962542082</v>
+        <v>2.420110068238027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1 2</t>
         </is>
       </c>
       <c r="B5">
-        <v>427.1485991310488</v>
+        <v>447.4035174485808</v>
       </c>
       <c r="C5">
-        <v>427.3346456426767</v>
+        <v>447.8835174485808</v>
       </c>
       <c r="D5">
-        <v>435.8196465157141</v>
+        <v>461.7795040645866</v>
       </c>
       <c r="E5">
-        <v>14.32451781782351</v>
+        <v>3.160459256986347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 2</t>
+          <t>1 3</t>
         </is>
       </c>
       <c r="B6">
-        <v>415.0036039083378</v>
+        <v>456.8378836877421</v>
       </c>
       <c r="C6">
-        <v>415.3161039083378</v>
+        <v>458.0182115565946</v>
       </c>
       <c r="D6">
-        <v>426.5650004212249</v>
+        <v>479.8394622733513</v>
       </c>
       <c r="E6">
-        <v>19.30950584959487</v>
+        <v>2.553717357440781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1 3</t>
+          <t>2 3</t>
         </is>
       </c>
       <c r="B7">
-        <v>428.8716315572869</v>
+        <v>452.8343816357384</v>
       </c>
       <c r="C7">
-        <v>429.1841315572869</v>
+        <v>453.3143816357384</v>
       </c>
       <c r="D7">
-        <v>440.433028070174</v>
+        <v>467.2103682517442</v>
       </c>
       <c r="E7">
-        <v>16.32365144827412</v>
+        <v>3.195148380556972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 3</t>
+          <t>1 2 3</t>
         </is>
       </c>
       <c r="B8">
-        <v>413.5547720661705</v>
+        <v>449.3615451252481</v>
       </c>
       <c r="C8">
-        <v>413.8672720661705</v>
+        <v>450.0389644800868</v>
       </c>
       <c r="D8">
-        <v>425.1161685790575</v>
+        <v>466.612729064455</v>
       </c>
       <c r="E8">
-        <v>18.52800686271582</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1 2 3</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>414.8224171016715</v>
-      </c>
-      <c r="C9">
-        <v>415.2948580465534</v>
-      </c>
-      <c r="D9">
-        <v>429.2741627427802</v>
-      </c>
-      <c r="E9">
-        <v>18.95074042014271</v>
+        <v>3.17223617657254</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,141 +380,160 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>mase</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="B2">
-        <v>458.5060384048063</v>
+        <v>461.9178075874689</v>
       </c>
       <c r="C2">
-        <v>459.4166075104974</v>
+        <v>462.5952269423076</v>
       </c>
       <c r="D2">
-        <v>478.6324196672144</v>
+        <v>479.1689915266758</v>
       </c>
       <c r="E2">
-        <v>1.886403282714515</v>
+        <v>0.7131108469777713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3">
-        <v>445.9698590601305</v>
+        <v>458.5060384048063</v>
       </c>
       <c r="C3">
-        <v>446.8804281658216</v>
+        <v>459.4166075104974</v>
       </c>
       <c r="D3">
-        <v>466.0962403225386</v>
+        <v>478.6324196672144</v>
       </c>
       <c r="E3">
-        <v>2.97148918737985</v>
+        <v>0.7661727318958919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4">
-        <v>463.915084794109</v>
+        <v>445.9698590601305</v>
       </c>
       <c r="C4">
-        <v>464.8256538998001</v>
+        <v>446.8804281658216</v>
       </c>
       <c r="D4">
-        <v>484.0414660565171</v>
+        <v>466.0962403225386</v>
       </c>
       <c r="E4">
-        <v>2.420110068238027</v>
+        <v>0.6365806040403128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5">
-        <v>447.4035174485808</v>
+        <v>463.915084794109</v>
       </c>
       <c r="C5">
-        <v>447.8835174485808</v>
+        <v>464.8256538998001</v>
       </c>
       <c r="D5">
-        <v>461.7795040645866</v>
+        <v>484.0414660565171</v>
       </c>
       <c r="E5">
-        <v>3.160459256986347</v>
+        <v>0.7317147676616937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 3</t>
+          <t>1 2</t>
         </is>
       </c>
       <c r="B6">
-        <v>456.8378836877421</v>
+        <v>447.4035174485808</v>
       </c>
       <c r="C6">
-        <v>458.0182115565946</v>
+        <v>447.8835174485808</v>
       </c>
       <c r="D6">
-        <v>479.8394622733513</v>
+        <v>461.7795040645866</v>
       </c>
       <c r="E6">
-        <v>2.553717357440781</v>
+        <v>0.7437223847242481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2 3</t>
+          <t>1 3</t>
         </is>
       </c>
       <c r="B7">
-        <v>452.8343816357384</v>
+        <v>456.8378836877421</v>
       </c>
       <c r="C7">
-        <v>453.3143816357384</v>
+        <v>458.0182115565946</v>
       </c>
       <c r="D7">
-        <v>467.2103682517442</v>
+        <v>479.8394622733513</v>
       </c>
       <c r="E7">
-        <v>3.195148380556972</v>
+        <v>0.6893679375550136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2 3</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>452.8343816357384</v>
+      </c>
+      <c r="C8">
+        <v>453.3143816357384</v>
+      </c>
+      <c r="D8">
+        <v>467.2103682517442</v>
+      </c>
+      <c r="E8">
+        <v>0.8104084128344408</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>1 2 3</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>449.3615451252481</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>450.0389644800868</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>466.612729064455</v>
       </c>
-      <c r="E8">
-        <v>3.17223617657254</v>
+      <c r="E9">
+        <v>0.7487955679452316</v>
       </c>
     </row>
   </sheetData>
